--- a/data/trans_camb/P27-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-10,15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 6,01</t>
+          <t>-16,59; 9,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 13,0</t>
+          <t>-12,67; 15,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 6,24</t>
+          <t>-8,55; 20,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 9,65</t>
+          <t>-10,31; 7,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 3,44</t>
+          <t>-14,26; 6,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 8,31</t>
+          <t>-20,29; 0,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,39; 5,86</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; 7,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,76; 6,59</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>-15,72%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-5,26%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-5,7%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 13,27</t>
+          <t>-30,18; 21,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 28,46</t>
+          <t>-21,91; 34,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 10,67</t>
+          <t>-15,5; 48,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 16,71</t>
+          <t>-14,97; 12,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 6,46</t>
+          <t>-20,97; 10,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 15,3</t>
+          <t>-29,59; 0,43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-18,88; 10,91</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-17,33; 14,07</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-19,07; 12,1</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>-9,57</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,82</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-9,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 5,34</t>
+          <t>-16,1; 9,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 10,35</t>
+          <t>-9,74; 16,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 18,11</t>
+          <t>-21,02; 5,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 20,22</t>
+          <t>-4,51; 16,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,32</t>
+          <t>-0,22; 21,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 12,33</t>
+          <t>-23,53; 1,42</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,7; 9,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 15,38</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,88; -0,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>-18,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>-17,19%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-18,26%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 13,74</t>
+          <t>-29,92; 22,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 24,81</t>
+          <t>-17,85; 39,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 36,57</t>
+          <t>-39,32; 12,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 40,6</t>
+          <t>-7,62; 33,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 17,66</t>
+          <t>-0,3; 42,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 26,66</t>
+          <t>-38,9; 2,88</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 18,96</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 32,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-31,58; -0,67</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>22,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>12,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,96</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 28,96</t>
+          <t>-29,21; 50,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 32,41</t>
+          <t>-7,83; 58,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 13,22</t>
+          <t>-21,23; 55,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 14,43</t>
+          <t>-25,35; 22,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 17,91</t>
+          <t>-17,75; 28,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 19,47</t>
+          <t>-21,21; 25,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,45; 25,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 36,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-13,73; 30,76</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 88,99</t>
+          <t>-47,51; 201,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 100,89</t>
+          <t>-13,46; 334,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 25,0</t>
+          <t>-35,55; 338,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 26,5</t>
+          <t>-35,52; 45,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 41,47</t>
+          <t>-24,3; 61,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 45,53</t>
+          <t>-29,69; 56,36</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; 65,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-9,41; 99,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 86,62</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-8,69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 3,71</t>
+          <t>-11,56; 6,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 9,42</t>
+          <t>-5,93; 14,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 8,17</t>
+          <t>-9,96; 11,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 11,04</t>
+          <t>-5,16; 8,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,02</t>
+          <t>-3,67; 9,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,33</t>
+          <t>-16,38; -1,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 4,79</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 9,34</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 2,09</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>-14,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-1,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-8,49%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 8,31</t>
+          <t>-21,97; 15,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 21,63</t>
+          <t>-10,82; 33,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 14,39</t>
+          <t>-18,85; 25,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 19,35</t>
+          <t>-8,12; 15,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,77</t>
+          <t>-5,67; 18,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 15,87</t>
+          <t>-25,58; -1,79</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 9,49</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 17,91</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
